--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Trf-Tfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Trf-Tfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,22 +528,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>12.43612633333333</v>
+        <v>0.04202566666666666</v>
       </c>
       <c r="H2">
-        <v>37.308379</v>
+        <v>0.126077</v>
       </c>
       <c r="I2">
-        <v>0.2323717069953836</v>
+        <v>0.001003231639737821</v>
       </c>
       <c r="J2">
-        <v>0.2323717069953836</v>
+        <v>0.001003231639737821</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,27 +558,27 @@
         <v>0.9017269999999999</v>
       </c>
       <c r="O2">
-        <v>0.8408887023826177</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.8408887023826176</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>3.737996963392555</v>
+        <v>0.01263189277544444</v>
       </c>
       <c r="R2">
-        <v>33.641972670533</v>
+        <v>0.113687034979</v>
       </c>
       <c r="S2">
-        <v>0.195398743165782</v>
+        <v>0.001003231639737821</v>
       </c>
       <c r="T2">
-        <v>0.195398743165782</v>
+        <v>0.001003231639737821</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>39.70924033333333</v>
+      </c>
+      <c r="H3">
+        <v>119.127721</v>
+      </c>
+      <c r="I3">
+        <v>0.9479341900351343</v>
+      </c>
+      <c r="J3">
+        <v>0.9479341900351345</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="L3">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G3">
-        <v>12.43612633333333</v>
-      </c>
-      <c r="H3">
-        <v>37.308379</v>
-      </c>
-      <c r="I3">
-        <v>0.2323717069953836</v>
-      </c>
-      <c r="J3">
-        <v>0.2323717069953836</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M3">
-        <v>0.05687433333333333</v>
+        <v>0.3005756666666666</v>
       </c>
       <c r="N3">
-        <v>0.170623</v>
+        <v>0.9017269999999999</v>
       </c>
       <c r="O3">
-        <v>0.1591112976173824</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.1591112976173824</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.7072963944574445</v>
+        <v>11.93563138601855</v>
       </c>
       <c r="R3">
-        <v>6.365667550117</v>
+        <v>107.420682474167</v>
       </c>
       <c r="S3">
-        <v>0.03697296382960166</v>
+        <v>0.9479341900351343</v>
       </c>
       <c r="T3">
-        <v>0.03697296382960166</v>
+        <v>0.9479341900351345</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.70924033333333</v>
+        <v>2.139026333333333</v>
       </c>
       <c r="H4">
-        <v>119.127721</v>
+        <v>6.417078999999999</v>
       </c>
       <c r="I4">
-        <v>0.7419757336345224</v>
+        <v>0.05106257832512778</v>
       </c>
       <c r="J4">
-        <v>0.7419757336345224</v>
+        <v>0.05106257832512778</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,208 +682,22 @@
         <v>0.9017269999999999</v>
       </c>
       <c r="O4">
-        <v>0.8408887023826177</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.8408887023826176</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>11.93563138601855</v>
+        <v>0.6429392661592221</v>
       </c>
       <c r="R4">
-        <v>107.420682474167</v>
+        <v>5.786453395432999</v>
       </c>
       <c r="S4">
-        <v>0.6239190118553244</v>
+        <v>0.05106257832512778</v>
       </c>
       <c r="T4">
-        <v>0.6239190118553243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>39.70924033333333</v>
-      </c>
-      <c r="H5">
-        <v>119.127721</v>
-      </c>
-      <c r="I5">
-        <v>0.7419757336345224</v>
-      </c>
-      <c r="J5">
-        <v>0.7419757336345224</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.05687433333333333</v>
-      </c>
-      <c r="N5">
-        <v>0.170623</v>
-      </c>
-      <c r="O5">
-        <v>0.1591112976173824</v>
-      </c>
-      <c r="P5">
-        <v>0.1591112976173824</v>
-      </c>
-      <c r="Q5">
-        <v>2.258436571131444</v>
-      </c>
-      <c r="R5">
-        <v>20.325929140183</v>
-      </c>
-      <c r="S5">
-        <v>0.1180567217791982</v>
-      </c>
-      <c r="T5">
-        <v>0.1180567217791982</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.37288</v>
-      </c>
-      <c r="H6">
-        <v>4.11864</v>
-      </c>
-      <c r="I6">
-        <v>0.02565255937009396</v>
-      </c>
-      <c r="J6">
-        <v>0.02565255937009396</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.3005756666666666</v>
-      </c>
-      <c r="N6">
-        <v>0.9017269999999999</v>
-      </c>
-      <c r="O6">
-        <v>0.8408887023826177</v>
-      </c>
-      <c r="P6">
-        <v>0.8408887023826176</v>
-      </c>
-      <c r="Q6">
-        <v>0.4126543212533333</v>
-      </c>
-      <c r="R6">
-        <v>3.71388889128</v>
-      </c>
-      <c r="S6">
-        <v>0.02157094736151137</v>
-      </c>
-      <c r="T6">
-        <v>0.02157094736151137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.37288</v>
-      </c>
-      <c r="H7">
-        <v>4.11864</v>
-      </c>
-      <c r="I7">
-        <v>0.02565255937009396</v>
-      </c>
-      <c r="J7">
-        <v>0.02565255937009396</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.05687433333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.170623</v>
-      </c>
-      <c r="O7">
-        <v>0.1591112976173824</v>
-      </c>
-      <c r="P7">
-        <v>0.1591112976173824</v>
-      </c>
-      <c r="Q7">
-        <v>0.07808163474666667</v>
-      </c>
-      <c r="R7">
-        <v>0.70273471272</v>
-      </c>
-      <c r="S7">
-        <v>0.004081612008582592</v>
-      </c>
-      <c r="T7">
-        <v>0.004081612008582592</v>
+        <v>0.05106257832512778</v>
       </c>
     </row>
   </sheetData>
